--- a/prologTracing.xlsx
+++ b/prologTracing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\gitProjects\prolog\worksheet-on-logic-programming-one-nkatz01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A070B8-DA55-4D5D-8375-F66FC9086DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFA6E7D-ED41-4443-9A28-96E1B9009DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{FC997239-3E2E-4612-BF6F-4294F58B7F41}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="132">
   <si>
     <t>parent(clive, dave).</t>
   </si>
@@ -376,13 +376,71 @@
   </si>
   <si>
     <t>practice:</t>
+  </si>
+  <si>
+    <t>idiv(X,Y,Result) :- is_integer(Result),
+Prod1 is Result*Y,
+Prod2 is (Result+1)*Y,
+Prod1 =&lt; X, Prod2 &gt; X,
+!.</t>
+  </si>
+  <si>
+    <t>is_integer(0).</t>
+  </si>
+  <si>
+    <t>is_integer(X) :- is_integer(Y), X is Y+1.</t>
+  </si>
+  <si>
+    <t>?-  is_integer(Y), X is Y+1.</t>
+  </si>
+  <si>
+    <t>X=4</t>
+  </si>
+  <si>
+    <t>Y=0</t>
+  </si>
+  <si>
+    <t>?- is_integer(4).</t>
+  </si>
+  <si>
+    <t>?- X is Y+1.</t>
+  </si>
+  <si>
+    <t>?-  is_integer(Y), 4 is Y+1.</t>
+  </si>
+  <si>
+    <t>?- 4 is 0+1.</t>
+  </si>
+  <si>
+    <t>Y=X</t>
+  </si>
+  <si>
+    <t>X=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ?- is_integer(Y), X is Y+1.</t>
+  </si>
+  <si>
+    <t>y=0</t>
+  </si>
+  <si>
+    <t>X=1</t>
+  </si>
+  <si>
+    <t>X=_</t>
+  </si>
+  <si>
+    <t>?- is_integer(X).</t>
+  </si>
+  <si>
+    <t>y=_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,8 +455,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,6 +692,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41F14A5-2420-4BD5-AE26-1876EB42A0C8}">
-  <dimension ref="A1:AJ108"/>
+  <dimension ref="A1:AJ114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,7 +2502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:36" x14ac:dyDescent="0.25">
       <c r="U81" s="4" t="s">
         <v>18</v>
       </c>
@@ -2430,7 +2510,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="I82" s="36">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>120</v>
+      </c>
       <c r="Y82" s="4" t="s">
         <v>102</v>
       </c>
@@ -2438,12 +2524,27 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="I83" s="36">
+        <v>2</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="Y83" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="I84" s="36">
+        <v>3</v>
+      </c>
+      <c r="K84" s="1">
+        <v>2</v>
+      </c>
       <c r="X84" t="s">
         <v>69</v>
       </c>
@@ -2454,12 +2555,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="K85" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="Y85" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>122</v>
+      </c>
       <c r="X86" s="18" t="s">
         <v>69</v>
       </c>
@@ -2470,7 +2577,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="K87" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="X87" s="18" t="s">
         <v>101</v>
       </c>
@@ -2478,7 +2600,77 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="K88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="J89" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="N89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>123</v>
+      </c>
+      <c r="N91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="K92" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L92" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O92" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P92" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="K93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="AA93" s="4" t="s">
         <v>102</v>
       </c>
@@ -2510,13 +2702,50 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="K94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1</v>
+      </c>
       <c r="AB94" s="1"/>
       <c r="AD94" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="N95" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="37"/>
+      <c r="X95" s="37"/>
+      <c r="Y95" s="37"/>
+      <c r="Z95" s="37"/>
       <c r="AA95" s="11"/>
       <c r="AB95" s="1"/>
       <c r="AC95" t="s">
@@ -2526,7 +2755,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="21:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="L96" t="s">
+        <v>130</v>
+      </c>
       <c r="AA96" s="11"/>
       <c r="AB96" s="1"/>
       <c r="AC96" t="s">
@@ -2536,12 +2768,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L97" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M97" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N97" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="AD97" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="K98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="AB98" s="4"/>
       <c r="AD98" s="4" t="s">
         <v>102</v>
@@ -2550,31 +2800,100 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="I99" s="36">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>125</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N99" s="1">
+        <v>2</v>
+      </c>
       <c r="AB99" s="1"/>
       <c r="AD99" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="I100" s="36">
+        <v>2</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="AB100" s="1"/>
       <c r="AD100" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I101" s="36">
+        <v>3</v>
+      </c>
+      <c r="L101" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M101" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" t="s">
+        <v>126</v>
+      </c>
       <c r="AB101" s="1"/>
       <c r="AD101" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M102" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O102" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P102" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="AB102" s="3"/>
       <c r="AD102" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="AA103" s="4" t="s">
         <v>102</v>
       </c>
@@ -2588,7 +2907,22 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="K104" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N104" s="1">
+        <v>1</v>
+      </c>
+      <c r="O104" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P104" s="1">
+        <v>2</v>
+      </c>
       <c r="AA104" s="1" t="s">
         <v>19</v>
       </c>
@@ -2602,7 +2936,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="AA105" s="1">
         <v>4</v>
       </c>
@@ -2619,7 +2959,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>121</v>
+      </c>
+      <c r="P106" t="s">
+        <v>117</v>
+      </c>
+      <c r="T106" s="35"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
       <c r="AA106" s="1" t="s">
         <v>19</v>
       </c>
@@ -2628,7 +2979,15 @@
       </c>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N107" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P107" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T107" s="1"/>
+      <c r="W107" s="1"/>
       <c r="AA107" s="1" t="s">
         <v>23</v>
       </c>
@@ -2640,10 +2999,59 @@
       </c>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="27:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M108" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S108" s="11"/>
+      <c r="T108" s="1"/>
+      <c r="V108" s="11"/>
+      <c r="W108" s="1"/>
       <c r="AC108" s="18" t="s">
         <v>101</v>
       </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M109" s="11"/>
+      <c r="N109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T109" s="1"/>
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M110" s="11"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M111" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="T111" s="35"/>
+      <c r="U111" s="35"/>
+      <c r="W111" s="35"/>
+      <c r="X111" s="35"/>
+      <c r="Y111" s="35"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="T112" s="1"/>
+      <c r="U112" s="11"/>
+      <c r="V112" s="35"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
